--- a/sample/data01-faq.xlsx
+++ b/sample/data01-faq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyue/project/tms-llm-kit/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2FB368-1CC6-0C40-AFAD-1E71BA5CD106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AF1AB-048A-7649-9656-D5974B41C901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{74252969-4C77-8D40-88DC-E511B4C8881F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="data01_faq" localSheetId="0">Sheet1!$A$3:$B$14</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>什么是语言大模型</t>
   </si>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言大模型中的幻觉是什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在语言大模型中，“幻觉”是指AI模型产生完全捏造的信息，这些信息既不准确也不真实。这种现象主要表现在语言大模型输出一系列看似符合逻辑，但实际错误或并不存在的虚假事实。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4352DB-E1E1-8947-B637-115E1C07ADE9}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -631,6 +639,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
